--- a/AERONET DATA.xlsx
+++ b/AERONET DATA.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiye/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weiye/Codings/2019/AOD_SARA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{558BF2C7-D748-1240-8908-FBC048161895}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2665D5B-D72A-0240-A16B-32A4ADC3BF77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="5" xr2:uid="{141842FC-0081-884A-9842-A30CD96CE1BF}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{141842FC-0081-884A-9842-A30CD96CE1BF}"/>
   </bookViews>
   <sheets>
     <sheet name="CalTech" sheetId="1" r:id="rId1"/>
     <sheet name="La_Jolla" sheetId="2" r:id="rId2"/>
     <sheet name="Mount_Wilson" sheetId="3" r:id="rId3"/>
-    <sheet name="Santa_Monica" sheetId="4" r:id="rId4"/>
+    <sheet name="Santa_Monica_Colg" sheetId="4" r:id="rId4"/>
     <sheet name="TABLE_MOUNTAIN_CA" sheetId="5" r:id="rId5"/>
     <sheet name="UCSB" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="39">
   <si>
     <t>Date(dd:mm:yyyy)</t>
   </si>
@@ -515,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79AEAA6D-1A3B-9D43-85F1-A1AABED840CB}">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,7 +582,7 @@
         <v>301.88603000000001</v>
       </c>
       <c r="E2">
-        <f>F2*(550/675)^(-I2)</f>
+        <f t="shared" ref="E2:E9" si="0">F2*(550/675)^(-I2)</f>
         <v>0.18687111070813256</v>
       </c>
       <c r="F2">
@@ -630,7 +630,7 @@
         <v>302.84783599999997</v>
       </c>
       <c r="E3">
-        <f>F3*(550/675)^(-I3)</f>
+        <f t="shared" si="0"/>
         <v>0.12139892057717715</v>
       </c>
       <c r="F3">
@@ -678,7 +678,7 @@
         <v>304.90514999999999</v>
       </c>
       <c r="E4">
-        <f>F4*(550/675)^(-I4)</f>
+        <f t="shared" si="0"/>
         <v>6.1404814256842181E-2</v>
       </c>
       <c r="F4">
@@ -726,7 +726,7 @@
         <v>305.86866900000001</v>
       </c>
       <c r="E5">
-        <f>F5*(550/675)^(-I5)</f>
+        <f t="shared" si="0"/>
         <v>4.8614044289119293E-2</v>
       </c>
       <c r="F5">
@@ -774,7 +774,7 @@
         <v>306.89297499999998</v>
       </c>
       <c r="E6">
-        <f>F6*(550/675)^(-I6)</f>
+        <f t="shared" si="0"/>
         <v>5.5611378278528696E-2</v>
       </c>
       <c r="F6">
@@ -822,7 +822,7 @@
         <v>307.859306</v>
       </c>
       <c r="E7">
-        <f>F7*(550/675)^(-I7)</f>
+        <f t="shared" si="0"/>
         <v>9.0818477814546106E-2</v>
       </c>
       <c r="F7">
@@ -870,7 +870,7 @@
         <v>308.88950199999999</v>
       </c>
       <c r="E8">
-        <f>F8*(550/675)^(-I8)</f>
+        <f t="shared" si="0"/>
         <v>0.10044306734169778</v>
       </c>
       <c r="F8">
@@ -918,7 +918,7 @@
         <v>309.85130800000002</v>
       </c>
       <c r="E9">
-        <f>F9*(550/675)^(-I9)</f>
+        <f t="shared" si="0"/>
         <v>7.0417865946953165E-2</v>
       </c>
       <c r="F9">
@@ -1481,7 +1481,7 @@
   <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1493,6 +1493,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -1538,7 +1541,7 @@
         <v>0.859375</v>
       </c>
       <c r="C2" s="3">
-        <f>F2*(550/675)^(-I2)</f>
+        <f t="shared" ref="C2:C8" si="0">F2*(550/675)^(-I2)</f>
         <v>3.7221621594495345E-2</v>
       </c>
       <c r="D2">
@@ -1586,7 +1589,7 @@
         <v>0.90076388888888881</v>
       </c>
       <c r="C3" s="3">
-        <f>F3*(550/675)^(-I3)</f>
+        <f t="shared" si="0"/>
         <v>4.056082469371286E-2</v>
       </c>
       <c r="D3">
@@ -1634,7 +1637,7 @@
         <v>0.85903935185185187</v>
       </c>
       <c r="C4" s="3">
-        <f>F4*(550/675)^(-I4)</f>
+        <f t="shared" si="0"/>
         <v>7.8731763604111146E-2</v>
       </c>
       <c r="D4">
@@ -1682,7 +1685,7 @@
         <v>0.89021990740740742</v>
       </c>
       <c r="C5" s="3">
-        <f>F5*(550/675)^(-I5)</f>
+        <f t="shared" si="0"/>
         <v>5.8406685451301357E-2</v>
       </c>
       <c r="D5">
@@ -1730,7 +1733,7 @@
         <v>0.84850694444444441</v>
       </c>
       <c r="C6" s="3">
-        <f>F6*(550/675)^(-I6)</f>
+        <f t="shared" si="0"/>
         <v>6.9658120403058188E-2</v>
       </c>
       <c r="D6">
@@ -1778,7 +1781,7 @@
         <v>0.87971064814814814</v>
       </c>
       <c r="C7" s="3">
-        <f>F7*(550/675)^(-I7)</f>
+        <f t="shared" si="0"/>
         <v>7.1247661400787213E-2</v>
       </c>
       <c r="D7">
@@ -1826,7 +1829,7 @@
         <v>0.90050925925925929</v>
       </c>
       <c r="C8" s="3">
-        <f>F8*(550/675)^(-I8)</f>
+        <f t="shared" si="0"/>
         <v>4.3455277258801522E-2</v>
       </c>
       <c r="D8">
@@ -1876,7 +1879,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1888,6 +1891,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>0.86594907407407407</v>
       </c>
       <c r="C2" s="3">
-        <f>F2*(550/675)^(-I2)</f>
+        <f t="shared" ref="C2:C12" si="0">F2*(550/675)^(-I2)</f>
         <v>4.6862281250235185E-2</v>
       </c>
       <c r="D2">
@@ -1981,7 +1987,7 @@
         <v>0.89648148148148143</v>
       </c>
       <c r="C3" s="3">
-        <f>F3*(550/675)^(-I3)</f>
+        <f t="shared" si="0"/>
         <v>4.3979002411294849E-2</v>
       </c>
       <c r="D3">
@@ -2029,7 +2035,7 @@
         <v>0.85480324074074077</v>
       </c>
       <c r="C4" s="3">
-        <f>F4*(550/675)^(-I4)</f>
+        <f t="shared" si="0"/>
         <v>5.0580795501370929E-2</v>
       </c>
       <c r="D4">
@@ -2077,7 +2083,7 @@
         <v>0.88606481481481481</v>
       </c>
       <c r="C5" s="3">
-        <f>F5*(550/675)^(-I5)</f>
+        <f t="shared" si="0"/>
         <v>0.11317866298156996</v>
       </c>
       <c r="D5">
@@ -2125,7 +2131,7 @@
         <v>0.84785879629629635</v>
       </c>
       <c r="C6" s="3">
-        <f>F6*(550/675)^(-I6)</f>
+        <f t="shared" si="0"/>
         <v>0.13954000547188219</v>
       </c>
       <c r="D6">
@@ -2173,7 +2179,7 @@
         <v>0.90738425925925925</v>
       </c>
       <c r="C7" s="3">
-        <f>F7*(550/675)^(-I7)</f>
+        <f t="shared" si="0"/>
         <v>5.4089488354803858E-2</v>
       </c>
       <c r="D7">
@@ -2221,7 +2227,7 @@
         <v>0.87040509259259258</v>
       </c>
       <c r="C8" s="3">
-        <f>F8*(550/675)^(-I8)</f>
+        <f t="shared" si="0"/>
         <v>4.5967349266907376E-2</v>
       </c>
       <c r="D8">
@@ -2269,7 +2275,7 @@
         <v>0.9000231481481481</v>
       </c>
       <c r="C9" s="3">
-        <f>F9*(550/675)^(-I9)</f>
+        <f t="shared" si="0"/>
         <v>6.8005723226778975E-2</v>
       </c>
       <c r="D9">
@@ -2317,7 +2323,7 @@
         <v>0.85998842592592595</v>
       </c>
       <c r="C10" s="3">
-        <f>F10*(550/675)^(-I10)</f>
+        <f t="shared" si="0"/>
         <v>8.2443990284581117E-2</v>
       </c>
       <c r="D10">
@@ -2365,7 +2371,7 @@
         <v>0.88957175925925924</v>
       </c>
       <c r="C11" s="3">
-        <f>F11*(550/675)^(-I11)</f>
+        <f t="shared" si="0"/>
         <v>9.3516617804993846E-2</v>
       </c>
       <c r="D11">
@@ -2413,7 +2419,7 @@
         <v>0.85135416666666675</v>
       </c>
       <c r="C12" s="3">
-        <f>F12*(550/675)^(-I12)</f>
+        <f t="shared" si="0"/>
         <v>6.2910466968022466E-2</v>
       </c>
       <c r="D12">
@@ -2463,7 +2469,7 @@
   <dimension ref="A1:O12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2475,6 +2481,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -2520,7 +2529,7 @@
         <v>0.86407407407407411</v>
       </c>
       <c r="C2" s="3">
-        <f>F2*(550/675)^(-I2)</f>
+        <f t="shared" ref="C2:C12" si="0">F2*(550/675)^(-I2)</f>
         <v>6.1657478393636073E-3</v>
       </c>
       <c r="D2">
@@ -2568,7 +2577,7 @@
         <v>0.90010416666666659</v>
       </c>
       <c r="C3" s="3">
-        <f>F3*(550/675)^(-I3)</f>
+        <f t="shared" si="0"/>
         <v>1.5151325474402245E-2</v>
       </c>
       <c r="D3">
@@ -2616,7 +2625,7 @@
         <v>0.85835648148148147</v>
       </c>
       <c r="C4" s="3">
-        <f>F4*(550/675)^(-I4)</f>
+        <f t="shared" si="0"/>
         <v>2.9308250187237317E-2</v>
       </c>
       <c r="D4">
@@ -2664,7 +2673,7 @@
         <v>0.88952546296296298</v>
       </c>
       <c r="C5" s="3">
-        <f>F5*(550/675)^(-I5)</f>
+        <f t="shared" si="0"/>
         <v>1.7596062858666529E-2</v>
       </c>
       <c r="D5">
@@ -2712,7 +2721,7 @@
         <v>0.84781249999999997</v>
       </c>
       <c r="C6" s="3">
-        <f>F6*(550/675)^(-I6)</f>
+        <f t="shared" si="0"/>
         <v>7.6302059207777355E-3</v>
       </c>
       <c r="D6">
@@ -2760,7 +2769,7 @@
         <v>0.8790162037037037</v>
       </c>
       <c r="C7" s="3">
-        <f>F7*(550/675)^(-I7)</f>
+        <f t="shared" si="0"/>
         <v>1.7699670446300421E-2</v>
       </c>
       <c r="D7">
@@ -2808,7 +2817,7 @@
         <v>0.90546296296296302</v>
       </c>
       <c r="C8" s="3">
-        <f>F8*(550/675)^(-I8)</f>
+        <f t="shared" si="0"/>
         <v>1.9603768532513409E-2</v>
       </c>
       <c r="D8">
@@ -2856,7 +2865,7 @@
         <v>0.8685532407407407</v>
       </c>
       <c r="C9" s="3">
-        <f>F9*(550/675)^(-I9)</f>
+        <f t="shared" si="0"/>
         <v>1.8232386444808145E-2</v>
       </c>
       <c r="D9">
@@ -2904,7 +2913,7 @@
         <v>0.90539351851851846</v>
       </c>
       <c r="C10" s="3">
-        <f>F10*(550/675)^(-I10)</f>
+        <f t="shared" si="0"/>
         <v>2.2346961812165809E-2</v>
       </c>
       <c r="D10">
@@ -2952,7 +2961,7 @@
         <v>0.86368055555555545</v>
       </c>
       <c r="C11" s="3">
-        <f>F11*(550/675)^(-I11)</f>
+        <f t="shared" si="0"/>
         <v>1.9077437212979997E-2</v>
       </c>
       <c r="D11">
@@ -3000,7 +3009,7 @@
         <v>0.88938657407407407</v>
       </c>
       <c r="C12" s="3">
-        <f>F12*(550/675)^(-I12)</f>
+        <f t="shared" si="0"/>
         <v>2.5321767169654872E-2</v>
       </c>
       <c r="D12">
@@ -3049,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78936AB9-A282-3E46-9DBA-754F77F5EE7B}">
   <dimension ref="A1:O12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A2:XFD14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3062,6 +3071,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
       <c r="D1" t="s">
         <v>2</v>
       </c>
@@ -3107,7 +3119,7 @@
         <v>0.86693287037037037</v>
       </c>
       <c r="C2" s="3">
-        <f>F2*(550/675)^(-I2)</f>
+        <f t="shared" ref="C2:C12" si="0">F2*(550/675)^(-I2)</f>
         <v>4.6661984884954544E-2</v>
       </c>
       <c r="D2">
@@ -3155,7 +3167,7 @@
         <v>0.89807870370370368</v>
       </c>
       <c r="C3" s="3">
-        <f>F3*(550/675)^(-I3)</f>
+        <f t="shared" si="0"/>
         <v>0.17131592625897074</v>
       </c>
       <c r="D3">
@@ -3203,7 +3215,7 @@
         <v>0.88755787037037026</v>
       </c>
       <c r="C4" s="3">
-        <f>F4*(550/675)^(-I4)</f>
+        <f t="shared" si="0"/>
         <v>0.1204097347548502</v>
       </c>
       <c r="D4">
@@ -3251,7 +3263,7 @@
         <v>0.84583333333333333</v>
       </c>
       <c r="C5" s="3">
-        <f>F5*(550/675)^(-I5)</f>
+        <f t="shared" si="0"/>
         <v>0.10101212947696697</v>
       </c>
       <c r="D5">
@@ -3299,7 +3311,7 @@
         <v>0.87708333333333333</v>
       </c>
       <c r="C6" s="3">
-        <f>F6*(550/675)^(-I6)</f>
+        <f t="shared" si="0"/>
         <v>9.4335207559202994E-2</v>
       </c>
       <c r="D6">
@@ -3347,7 +3359,7 @@
         <v>0.9083564814814814</v>
       </c>
       <c r="C7" s="3">
-        <f>F7*(550/675)^(-I7)</f>
+        <f t="shared" si="0"/>
         <v>4.9623330476215387E-2</v>
       </c>
       <c r="D7">
@@ -3395,7 +3407,7 @@
         <v>0.86663194444444447</v>
       </c>
       <c r="C8" s="3">
-        <f>F8*(550/675)^(-I8)</f>
+        <f t="shared" si="0"/>
         <v>0.20159962441781668</v>
       </c>
       <c r="D8">
@@ -3443,7 +3455,7 @@
         <v>0.89788194444444447</v>
       </c>
       <c r="C9" s="3">
-        <f>F9*(550/675)^(-I9)</f>
+        <f t="shared" si="0"/>
         <v>6.98580575963893E-2</v>
       </c>
       <c r="D9">
@@ -3491,7 +3503,7 @@
         <v>0.85620370370370369</v>
       </c>
       <c r="C10" s="3">
-        <f>F10*(550/675)^(-I10)</f>
+        <f t="shared" si="0"/>
         <v>7.3058911144951971E-2</v>
       </c>
       <c r="D10">
@@ -3539,7 +3551,7 @@
         <v>0.88750000000000007</v>
       </c>
       <c r="C11" s="3">
-        <f>F11*(550/675)^(-I11)</f>
+        <f t="shared" si="0"/>
         <v>6.7286989738491579E-2</v>
       </c>
       <c r="D11">
@@ -3587,7 +3599,7 @@
         <v>0.8458564814814814</v>
       </c>
       <c r="C12" s="3">
-        <f>F12*(550/675)^(-I12)</f>
+        <f t="shared" si="0"/>
         <v>6.9340112895673003E-2</v>
       </c>
       <c r="D12">
